--- a/ResultadoEleicoesDistritos/SANTARÉM_CARTAXO.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_CARTAXO.xlsx
@@ -597,25 +597,25 @@
         <v>6223</v>
       </c>
       <c r="H2" t="n">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I2" t="n">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="J2" t="n">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N2" t="n">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -624,37 +624,37 @@
         <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S2" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T2" t="n">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="U2" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="V2" t="n">
-        <v>3942</v>
+        <v>3986</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
